--- a/results/fit_by_year.xlsx
+++ b/results/fit_by_year.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,28 +441,28 @@
         <v>2001</v>
       </c>
       <c r="C2">
-        <v>0.9046907609178723</v>
+        <v>0.8454120746661806</v>
       </c>
       <c r="D2">
-        <v>0.6942224764543878</v>
+        <v>0.5746173926921191</v>
       </c>
       <c r="E2">
-        <v>0.5705876860095643</v>
+        <v>0.4235239277873187</v>
       </c>
       <c r="F2">
-        <v>0.2387551728281777</v>
+        <v>0.2387912437565982</v>
       </c>
       <c r="G2">
-        <v>0.9160327835890515</v>
+        <v>0.9372631907837249</v>
       </c>
       <c r="H2">
-        <v>0.9375508287338329</v>
+        <v>0.9681230500327664</v>
       </c>
       <c r="I2">
-        <v>0.9680902127280783</v>
+        <v>0.9871527514816029</v>
       </c>
       <c r="J2">
-        <v>0.9923205874113886</v>
+        <v>0.9957686525816521</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -473,28 +473,28 @@
         <v>2002</v>
       </c>
       <c r="C3">
-        <v>1.010124610695357</v>
+        <v>0.9392562026107013</v>
       </c>
       <c r="D3">
-        <v>0.5078685522612567</v>
+        <v>0.7101227608334819</v>
       </c>
       <c r="E3">
-        <v>0.4561661602801657</v>
+        <v>0.317019333813915</v>
       </c>
       <c r="F3">
-        <v>0.320090753083717</v>
+        <v>0.2209583824428857</v>
       </c>
       <c r="G3">
-        <v>0.8995090991645878</v>
+        <v>0.9286832247443829</v>
       </c>
       <c r="H3">
-        <v>0.9662097746069765</v>
+        <v>0.9577401261590767</v>
       </c>
       <c r="I3">
-        <v>0.9835041083387347</v>
+        <v>0.9917543133067012</v>
       </c>
       <c r="J3">
-        <v>0.9849739062554829</v>
+        <v>0.9957577754246948</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -505,28 +505,28 @@
         <v>2003</v>
       </c>
       <c r="C4">
-        <v>0.9629587083641594</v>
+        <v>0.938277787890377</v>
       </c>
       <c r="D4">
-        <v>0.8145453106902846</v>
+        <v>0.6377119878583452</v>
       </c>
       <c r="E4">
-        <v>0.4620921439646858</v>
+        <v>0.3436205099402178</v>
       </c>
       <c r="F4">
-        <v>0.3053956568753985</v>
+        <v>0.2832653338419641</v>
       </c>
       <c r="G4">
-        <v>0.9237700720244233</v>
+        <v>0.9317102829264907</v>
       </c>
       <c r="H4">
-        <v>0.9247167349453032</v>
+        <v>0.9624196769569195</v>
       </c>
       <c r="I4">
-        <v>0.9817616219141654</v>
+        <v>0.9891197372144912</v>
       </c>
       <c r="J4">
-        <v>0.988889635345384</v>
+        <v>0.9931803230975318</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -537,28 +537,28 @@
         <v>2004</v>
       </c>
       <c r="C5">
-        <v>1.305683328038275</v>
+        <v>0.8732410627097045</v>
       </c>
       <c r="D5">
-        <v>0.5335789451406139</v>
+        <v>0.5449994307433651</v>
       </c>
       <c r="E5">
-        <v>0.4447142308183641</v>
+        <v>0.3523877293720828</v>
       </c>
       <c r="F5">
-        <v>0.2058499238557657</v>
+        <v>0.3042606154659904</v>
       </c>
       <c r="G5">
-        <v>0.8719048227014092</v>
+        <v>0.9352216397526277</v>
       </c>
       <c r="H5">
-        <v>0.9756361148179291</v>
+        <v>0.9723117675200333</v>
       </c>
       <c r="I5">
-        <v>0.9778250876351245</v>
+        <v>0.9894829125934195</v>
       </c>
       <c r="J5">
-        <v>0.9959668686364133</v>
+        <v>0.9916815733555243</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,28 +569,28 @@
         <v>2005</v>
       </c>
       <c r="C6">
-        <v>1.061141729570976</v>
+        <v>0.7680727116111665</v>
       </c>
       <c r="D6">
-        <v>0.7060870762942486</v>
+        <v>0.6511208911483776</v>
       </c>
       <c r="E6">
-        <v>0.3957019302594054</v>
+        <v>0.4687662499165642</v>
       </c>
       <c r="F6">
-        <v>0.3453159842006735</v>
+        <v>0.2973483794609448</v>
       </c>
       <c r="G6">
-        <v>0.8892337061504906</v>
+        <v>0.9442611931770071</v>
       </c>
       <c r="H6">
-        <v>0.9270246351028553</v>
+        <v>0.9600506456244133</v>
       </c>
       <c r="I6">
-        <v>0.987754072740336</v>
+        <v>0.9786694458368667</v>
       </c>
       <c r="J6">
-        <v>0.9863867668452183</v>
+        <v>0.9904048220253019</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -601,28 +601,28 @@
         <v>2006</v>
       </c>
       <c r="C7">
-        <v>0.9875282384281696</v>
+        <v>0.8080482626648522</v>
       </c>
       <c r="D7">
-        <v>0.5145288292277758</v>
+        <v>0.7327687147445467</v>
       </c>
       <c r="E7">
-        <v>0.3934587492650911</v>
+        <v>0.5806419423283982</v>
       </c>
       <c r="F7">
-        <v>0.2704293984766692</v>
+        <v>0.3352473203414349</v>
       </c>
       <c r="G7">
-        <v>0.87798083467125</v>
+        <v>0.9449451232984849</v>
       </c>
       <c r="H7">
-        <v>0.9707828885511158</v>
+        <v>0.9516127205841958</v>
       </c>
       <c r="I7">
-        <v>0.9837055778753656</v>
+        <v>0.9693077181007306</v>
       </c>
       <c r="J7">
-        <v>0.9920569823827797</v>
+        <v>0.9890110576517198</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -633,28 +633,28 @@
         <v>2007</v>
       </c>
       <c r="C8">
-        <v>0.9962155997153523</v>
+        <v>0.7902819011283964</v>
       </c>
       <c r="D8">
-        <v>0.9303417494395518</v>
+        <v>0.6190154963607419</v>
       </c>
       <c r="E8">
-        <v>0.6291421516696694</v>
+        <v>0.4237509116754768</v>
       </c>
       <c r="F8">
-        <v>0.2694585026426509</v>
+        <v>0.3443868699727591</v>
       </c>
       <c r="G8">
-        <v>0.9203570735506068</v>
+        <v>0.9448437181464016</v>
       </c>
       <c r="H8">
-        <v>0.8966573565889636</v>
+        <v>0.9694878285564166</v>
       </c>
       <c r="I8">
-        <v>0.9635557528993003</v>
+        <v>0.9827333552342891</v>
       </c>
       <c r="J8">
-        <v>0.9898177167029555</v>
+        <v>0.9895006943623607</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -665,28 +665,28 @@
         <v>2008</v>
       </c>
       <c r="C9">
-        <v>1.150885616141102</v>
+        <v>0.6963561839751632</v>
       </c>
       <c r="D9">
-        <v>0.831384964767701</v>
+        <v>0.5642948347690823</v>
       </c>
       <c r="E9">
-        <v>0.5290065614260413</v>
+        <v>0.3570962334240105</v>
       </c>
       <c r="F9">
-        <v>0.4263861098650542</v>
+        <v>0.2369652598533717</v>
       </c>
       <c r="G9">
-        <v>0.8669110961517429</v>
+        <v>0.9652063857269878</v>
       </c>
       <c r="H9">
-        <v>0.9192316994437106</v>
+        <v>0.9752474420106647</v>
       </c>
       <c r="I9">
-        <v>0.9758377884120815</v>
+        <v>0.9889771856788749</v>
       </c>
       <c r="J9">
-        <v>0.9814574561737051</v>
+        <v>0.9939777717662842</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,28 +697,28 @@
         <v>2009</v>
       </c>
       <c r="C10">
-        <v>0.9543153163647815</v>
+        <v>0.7180594750655471</v>
       </c>
       <c r="D10">
-        <v>0.5202475106450793</v>
+        <v>0.570837418017877</v>
       </c>
       <c r="E10">
-        <v>0.60253400695149</v>
+        <v>0.3633902691316006</v>
       </c>
       <c r="F10">
-        <v>0.2452354025538478</v>
+        <v>0.2588261197601949</v>
       </c>
       <c r="G10">
-        <v>0.9109016559935379</v>
+        <v>0.9615748204794781</v>
       </c>
       <c r="H10">
-        <v>0.9704835172736302</v>
+        <v>0.9727601418313467</v>
       </c>
       <c r="I10">
-        <v>0.9679141425019889</v>
+        <v>0.9876671599795334</v>
       </c>
       <c r="J10">
-        <v>0.9925389551941806</v>
+        <v>0.9930631552461676</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -729,28 +729,28 @@
         <v>2010</v>
       </c>
       <c r="C11">
-        <v>0.9056195926908022</v>
+        <v>0.7662934726784477</v>
       </c>
       <c r="D11">
-        <v>0.5059399603580903</v>
+        <v>0.5530247160994158</v>
       </c>
       <c r="E11">
-        <v>0.4114084940587412</v>
+        <v>0.3851515553702624</v>
       </c>
       <c r="F11">
-        <v>0.2736342270412061</v>
+        <v>0.3107703121690998</v>
       </c>
       <c r="G11">
-        <v>0.9366205826456898</v>
+        <v>0.9541430700370324</v>
       </c>
       <c r="H11">
-        <v>0.9796148870916139</v>
+        <v>0.9754108342461301</v>
       </c>
       <c r="I11">
-        <v>0.9822080363279625</v>
+        <v>0.9860656454117797</v>
       </c>
       <c r="J11">
-        <v>0.9905304831806007</v>
+        <v>0.9906817413749209</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -761,28 +761,28 @@
         <v>2011</v>
       </c>
       <c r="C12">
-        <v>0.8902269283978089</v>
+        <v>0.7530048666848886</v>
       </c>
       <c r="D12">
-        <v>0.5822589830156059</v>
+        <v>0.5634769776621019</v>
       </c>
       <c r="E12">
-        <v>0.5615573935207834</v>
+        <v>0.3756537792948457</v>
       </c>
       <c r="F12">
-        <v>0.2560107310179762</v>
+        <v>0.2902652578722288</v>
       </c>
       <c r="G12">
-        <v>0.9320369289141365</v>
+        <v>0.9502424055664649</v>
       </c>
       <c r="H12">
-        <v>0.9678747713943757</v>
+        <v>0.9739123580468416</v>
       </c>
       <c r="I12">
-        <v>0.9689797369227928</v>
+        <v>0.986622277655842</v>
       </c>
       <c r="J12">
-        <v>0.9933773623845166</v>
+        <v>0.991649119259813</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -793,28 +793,60 @@
         <v>2012</v>
       </c>
       <c r="C13">
-        <v>0.9168431313718601</v>
+        <v>0.8527090248945788</v>
       </c>
       <c r="D13">
-        <v>0.6746917357474891</v>
+        <v>0.5546546619137362</v>
       </c>
       <c r="E13">
-        <v>0.4777567785319776</v>
+        <v>0.3971246134649597</v>
       </c>
       <c r="F13">
-        <v>0.3395869620246151</v>
+        <v>0.314087614242697</v>
       </c>
       <c r="G13">
-        <v>0.9340191469982662</v>
+        <v>0.9272601149018127</v>
       </c>
       <c r="H13">
-        <v>0.9527289024067673</v>
+        <v>0.9724663094186698</v>
       </c>
       <c r="I13">
-        <v>0.9757568475467584</v>
+        <v>0.98616251979319</v>
       </c>
       <c r="J13">
-        <v>0.9858393914834466</v>
+        <v>0.9915633141524802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14">
+        <v>0.7610571988045199</v>
+      </c>
+      <c r="D14">
+        <v>0.5913310913379496</v>
+      </c>
+      <c r="E14">
+        <v>0.3792801771091315</v>
+      </c>
+      <c r="F14">
+        <v>0.2752221627927404</v>
+      </c>
+      <c r="G14">
+        <v>0.9506592412182229</v>
+      </c>
+      <c r="H14">
+        <v>0.966644538582481</v>
+      </c>
+      <c r="I14">
+        <v>0.9879290723021705</v>
+      </c>
+      <c r="J14">
+        <v>0.9933457743345488</v>
       </c>
     </row>
   </sheetData>

--- a/results/fit_by_year.xlsx
+++ b/results/fit_by_year.xlsx
@@ -441,28 +441,28 @@
         <v>2001</v>
       </c>
       <c r="C2">
-        <v>0.8454120746661806</v>
+        <v>0.8739511728055737</v>
       </c>
       <c r="D2">
-        <v>0.5746173926921191</v>
+        <v>0.5402806731628496</v>
       </c>
       <c r="E2">
-        <v>0.4235239277873187</v>
+        <v>0.3778262921959825</v>
       </c>
       <c r="F2">
-        <v>0.2387912437565982</v>
+        <v>0.2352829358286594</v>
       </c>
       <c r="G2">
-        <v>0.9372631907837249</v>
+        <v>0.9340685938947815</v>
       </c>
       <c r="H2">
-        <v>0.9681230500327664</v>
+        <v>0.9726799887645697</v>
       </c>
       <c r="I2">
-        <v>0.9871527514816029</v>
+        <v>0.9884431468071708</v>
       </c>
       <c r="J2">
-        <v>0.9957686525816521</v>
+        <v>0.9959007533532966</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -473,28 +473,28 @@
         <v>2002</v>
       </c>
       <c r="C3">
-        <v>0.9392562026107013</v>
+        <v>0.8644783432754686</v>
       </c>
       <c r="D3">
-        <v>0.7101227608334819</v>
+        <v>0.7242597280921244</v>
       </c>
       <c r="E3">
-        <v>0.317019333813915</v>
+        <v>0.332424475707086</v>
       </c>
       <c r="F3">
-        <v>0.2209583824428857</v>
+        <v>0.208944988160841</v>
       </c>
       <c r="G3">
-        <v>0.9286832247443829</v>
+        <v>0.9415512022652157</v>
       </c>
       <c r="H3">
-        <v>0.9577401261590767</v>
+        <v>0.954049059396732</v>
       </c>
       <c r="I3">
-        <v>0.9917543133067012</v>
+        <v>0.9912594921342283</v>
       </c>
       <c r="J3">
-        <v>0.9957577754246948</v>
+        <v>0.9962513561888862</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -505,28 +505,28 @@
         <v>2003</v>
       </c>
       <c r="C4">
-        <v>0.938277787890377</v>
+        <v>0.9736860544130298</v>
       </c>
       <c r="D4">
-        <v>0.6377119878583452</v>
+        <v>0.6192249092301444</v>
       </c>
       <c r="E4">
-        <v>0.3436205099402178</v>
+        <v>0.3576546769388764</v>
       </c>
       <c r="F4">
-        <v>0.2832653338419641</v>
+        <v>0.2629594828526819</v>
       </c>
       <c r="G4">
-        <v>0.9317102829264907</v>
+        <v>0.9270891022498271</v>
       </c>
       <c r="H4">
-        <v>0.9624196769569195</v>
+        <v>0.9676078226854733</v>
       </c>
       <c r="I4">
-        <v>0.9891197372144912</v>
+        <v>0.9882681931990073</v>
       </c>
       <c r="J4">
-        <v>0.9931803230975318</v>
+        <v>0.9940850228105955</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -537,28 +537,28 @@
         <v>2004</v>
       </c>
       <c r="C5">
-        <v>0.8732410627097045</v>
+        <v>0.8482452591747199</v>
       </c>
       <c r="D5">
-        <v>0.5449994307433651</v>
+        <v>0.5359005267840287</v>
       </c>
       <c r="E5">
-        <v>0.3523877293720828</v>
+        <v>0.3360758611652681</v>
       </c>
       <c r="F5">
-        <v>0.3042606154659904</v>
+        <v>0.3025489248386074</v>
       </c>
       <c r="G5">
-        <v>0.9352216397526277</v>
+        <v>0.9415256693905386</v>
       </c>
       <c r="H5">
-        <v>0.9723117675200333</v>
+        <v>0.9731994351816624</v>
       </c>
       <c r="I5">
-        <v>0.9894829125934195</v>
+        <v>0.990440882031254</v>
       </c>
       <c r="J5">
-        <v>0.9916815733555243</v>
+        <v>0.9918087203116019</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,28 +569,28 @@
         <v>2005</v>
       </c>
       <c r="C6">
-        <v>0.7680727116111665</v>
+        <v>0.7651176234769749</v>
       </c>
       <c r="D6">
-        <v>0.6511208911483776</v>
+        <v>0.6087473172838609</v>
       </c>
       <c r="E6">
-        <v>0.4687662499165642</v>
+        <v>0.4227478723619803</v>
       </c>
       <c r="F6">
-        <v>0.2973483794609448</v>
+        <v>0.2932055271001476</v>
       </c>
       <c r="G6">
-        <v>0.9442611931770071</v>
+        <v>0.9469098938686953</v>
       </c>
       <c r="H6">
-        <v>0.9600506456244133</v>
+        <v>0.9672512956886417</v>
       </c>
       <c r="I6">
-        <v>0.9786694458368667</v>
+        <v>0.9810900305909629</v>
       </c>
       <c r="J6">
-        <v>0.9904048220253019</v>
+        <v>0.9909667522994511</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -601,28 +601,28 @@
         <v>2006</v>
       </c>
       <c r="C7">
-        <v>0.8080482626648522</v>
+        <v>0.865991640882503</v>
       </c>
       <c r="D7">
-        <v>0.7327687147445467</v>
+        <v>0.7198552580768174</v>
       </c>
       <c r="E7">
-        <v>0.5806419423283982</v>
+        <v>0.5530808766161489</v>
       </c>
       <c r="F7">
-        <v>0.3352473203414349</v>
+        <v>0.3143770557866628</v>
       </c>
       <c r="G7">
-        <v>0.9449451232984849</v>
+        <v>0.9400390214412309</v>
       </c>
       <c r="H7">
-        <v>0.9516127205841958</v>
+        <v>0.9529095875938838</v>
       </c>
       <c r="I7">
-        <v>0.9693077181007306</v>
+        <v>0.9731118769899938</v>
       </c>
       <c r="J7">
-        <v>0.9890110576517198</v>
+        <v>0.989779754421788</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -633,28 +633,28 @@
         <v>2007</v>
       </c>
       <c r="C8">
-        <v>0.7902819011283964</v>
+        <v>0.7532905219466757</v>
       </c>
       <c r="D8">
-        <v>0.6190154963607419</v>
+        <v>0.5797461729685276</v>
       </c>
       <c r="E8">
-        <v>0.4237509116754768</v>
+        <v>0.4242471119489388</v>
       </c>
       <c r="F8">
-        <v>0.3443868699727591</v>
+        <v>0.347680097684509</v>
       </c>
       <c r="G8">
-        <v>0.9448437181464016</v>
+        <v>0.9514642580480104</v>
       </c>
       <c r="H8">
-        <v>0.9694878285564166</v>
+        <v>0.9732435928110228</v>
       </c>
       <c r="I8">
-        <v>0.9827333552342891</v>
+        <v>0.9832628320963372</v>
       </c>
       <c r="J8">
-        <v>0.9895006943623607</v>
+        <v>0.9892013212997476</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -665,28 +665,28 @@
         <v>2008</v>
       </c>
       <c r="C9">
-        <v>0.6963561839751632</v>
+        <v>0.6774317625142978</v>
       </c>
       <c r="D9">
-        <v>0.5642948347690823</v>
+        <v>0.5538925212650713</v>
       </c>
       <c r="E9">
-        <v>0.3570962334240105</v>
+        <v>0.4080304213470822</v>
       </c>
       <c r="F9">
-        <v>0.2369652598533717</v>
+        <v>0.2517271111341479</v>
       </c>
       <c r="G9">
-        <v>0.9652063857269878</v>
+        <v>0.9669508381139664</v>
       </c>
       <c r="H9">
-        <v>0.9752474420106647</v>
+        <v>0.9768484105691677</v>
       </c>
       <c r="I9">
-        <v>0.9889771856788749</v>
+        <v>0.9855750197995287</v>
       </c>
       <c r="J9">
-        <v>0.9939777717662842</v>
+        <v>0.9932915543675426</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,28 +697,28 @@
         <v>2009</v>
       </c>
       <c r="C10">
-        <v>0.7180594750655471</v>
+        <v>0.7495344056677367</v>
       </c>
       <c r="D10">
-        <v>0.570837418017877</v>
+        <v>0.5456068634347391</v>
       </c>
       <c r="E10">
-        <v>0.3633902691316006</v>
+        <v>0.4075774804092083</v>
       </c>
       <c r="F10">
-        <v>0.2588261197601949</v>
+        <v>0.2631041863690966</v>
       </c>
       <c r="G10">
-        <v>0.9615748204794781</v>
+        <v>0.9562028839923599</v>
       </c>
       <c r="H10">
-        <v>0.9727601418313467</v>
+        <v>0.975156347549184</v>
       </c>
       <c r="I10">
-        <v>0.9876671599795334</v>
+        <v>0.9848624057087558</v>
       </c>
       <c r="J10">
-        <v>0.9930631552461676</v>
+        <v>0.9931112753403315</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -729,28 +729,28 @@
         <v>2010</v>
       </c>
       <c r="C11">
-        <v>0.7662934726784477</v>
+        <v>0.7551042250007844</v>
       </c>
       <c r="D11">
-        <v>0.5530247160994158</v>
+        <v>0.5725582011981718</v>
       </c>
       <c r="E11">
-        <v>0.3851515553702624</v>
+        <v>0.3787737884225098</v>
       </c>
       <c r="F11">
-        <v>0.3107703121690998</v>
+        <v>0.3133668832521836</v>
       </c>
       <c r="G11">
-        <v>0.9541430700370324</v>
+        <v>0.9568537017327262</v>
       </c>
       <c r="H11">
-        <v>0.9754108342461301</v>
+        <v>0.9752702439361732</v>
       </c>
       <c r="I11">
-        <v>0.9860656454117797</v>
+        <v>0.9868573539356005</v>
       </c>
       <c r="J11">
-        <v>0.9906817413749209</v>
+        <v>0.9900907563594685</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -761,28 +761,28 @@
         <v>2011</v>
       </c>
       <c r="C12">
-        <v>0.7530048666848886</v>
+        <v>0.7440771796154062</v>
       </c>
       <c r="D12">
-        <v>0.5634769776621019</v>
+        <v>0.6058113858021053</v>
       </c>
       <c r="E12">
-        <v>0.3756537792948457</v>
+        <v>0.3938748350602326</v>
       </c>
       <c r="F12">
-        <v>0.2902652578722288</v>
+        <v>0.3302366725887971</v>
       </c>
       <c r="G12">
-        <v>0.9502424055664649</v>
+        <v>0.9515643504842817</v>
       </c>
       <c r="H12">
-        <v>0.9739123580468416</v>
+        <v>0.9693641047730808</v>
       </c>
       <c r="I12">
-        <v>0.986622277655842</v>
+        <v>0.9842508007225108</v>
       </c>
       <c r="J12">
-        <v>0.991649119259813</v>
+        <v>0.989516672428616</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -793,28 +793,28 @@
         <v>2012</v>
       </c>
       <c r="C13">
-        <v>0.8527090248945788</v>
+        <v>0.7587596509041565</v>
       </c>
       <c r="D13">
-        <v>0.5546546619137362</v>
+        <v>0.6053507129713018</v>
       </c>
       <c r="E13">
-        <v>0.3971246134649597</v>
+        <v>0.4153739194333044</v>
       </c>
       <c r="F13">
-        <v>0.314087614242697</v>
+        <v>0.3103055807350224</v>
       </c>
       <c r="G13">
-        <v>0.9272601149018127</v>
+        <v>0.9423914478728243</v>
       </c>
       <c r="H13">
-        <v>0.9724663094186698</v>
+        <v>0.9656885675818</v>
       </c>
       <c r="I13">
-        <v>0.98616251979319</v>
+        <v>0.985029832754368</v>
       </c>
       <c r="J13">
-        <v>0.9915633141524802</v>
+        <v>0.9907811220411474</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -825,28 +825,28 @@
         <v>2000</v>
       </c>
       <c r="C14">
-        <v>0.7610571988045199</v>
+        <v>0.8189059351839049</v>
       </c>
       <c r="D14">
-        <v>0.5913310913379496</v>
+        <v>0.5588512250371125</v>
       </c>
       <c r="E14">
-        <v>0.3792801771091315</v>
+        <v>0.4161219557424342</v>
       </c>
       <c r="F14">
-        <v>0.2752221627927404</v>
+        <v>0.2914518631568363</v>
       </c>
       <c r="G14">
-        <v>0.9506592412182229</v>
+        <v>0.9412720839900285</v>
       </c>
       <c r="H14">
-        <v>0.966644538582481</v>
+        <v>0.9720932700140003</v>
       </c>
       <c r="I14">
-        <v>0.9879290723021705</v>
+        <v>0.9859036337855039</v>
       </c>
       <c r="J14">
-        <v>0.9933457743345488</v>
+        <v>0.9926619680002237</v>
       </c>
     </row>
   </sheetData>
